--- a/01_企画書/01_業務フロー.xlsx
+++ b/01_企画書/01_業務フロー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\asofs1\SEC_ABCC\システム系\学科\システム開発分野2年\2022\07_企業連携\ドキュメント関連\設計書フォーマット\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2825D759-A989-4AF6-AB58-F5AD72B900CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{2825D759-A989-4AF6-AB58-F5AD72B900CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84EF8DE-873D-4254-B4BC-94DBEC5DB7AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -40,16 +40,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>xxxx/xx/xx</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -107,6 +103,9 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>レスバ・オブザ・リング</t>
   </si>
   <si>
     <t>ＰＭ</t>
@@ -175,10 +174,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>20xx/xx/xx</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>新規作成</t>
     <rPh sb="0" eb="2">
       <t>シンキ</t>
@@ -222,6 +217,9 @@
       <t>サクセイシャ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>松尾　爽汰</t>
   </si>
   <si>
     <t>工程名</t>
@@ -270,6 +268,9 @@
       <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>企画者</t>
   </si>
 </sst>
 </file>
@@ -407,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -547,6 +548,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -558,7 +583,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -575,12 +600,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,9 +623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
@@ -615,15 +631,10 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,6 +668,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,6 +731,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -697,15 +756,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,42 +773,6 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -788,6 +802,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1206,8 +1250,8 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -1220,38 +1264,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:176" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -1422,17 +1466,21 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="79" t="s">
+      <c r="Y2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="38" t="s">
-        <v>1</v>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="48">
+        <v>2023</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="23"/>
+      <c r="AC2" s="48">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="49">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="21"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
@@ -1496,8 +1544,8 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="18" t="s">
-        <v>2</v>
+      <c r="Y4" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1532,8 +1580,8 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="18" t="s">
-        <v>3</v>
+      <c r="Y5" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1545,26 +1593,26 @@
     </row>
     <row r="6" spans="1:176" ht="19.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -1583,24 +1631,26 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="83"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="61"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -1608,40 +1658,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="79" t="s">
+      <c r="Y7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="79" t="s">
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="79" t="s">
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="43"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="37"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="86"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="64"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1649,14 +1699,14 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="43"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="65"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="37"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
@@ -1684,14 +1734,14 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="43"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="37"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:176" ht="15" customHeight="1">
@@ -1719,14 +1769,14 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="43"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="37"/>
       <c r="AG10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
@@ -1765,208 +1815,208 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="17"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="17"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="17"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="17"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="15"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="17"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="15"/>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="17"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="15"/>
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
@@ -2075,324 +2125,324 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="67" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="67" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="67" t="s">
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="16"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="14"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="73" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="82">
+        <v>45040</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="70" t="s">
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC22" s="68"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="16"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="58"/>
+      <c r="AE22" s="14"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="67"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="16"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="58"/>
+      <c r="AE23" s="14"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="67"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="16"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="14"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="16"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="14"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="16"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="14"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="68"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="16"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="14"/>
       <c r="AF27" s="2"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="2"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
       <c r="AF29" s="2"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
@@ -2431,6 +2481,30 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K27:AA27"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="K23:AA23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K26:AA26"/>
+    <mergeCell ref="K24:AA24"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AB25:AD25"/>
     <mergeCell ref="F6:M6"/>
     <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="Y7:Z7"/>
@@ -2441,35 +2515,11 @@
     <mergeCell ref="AA8:AB10"/>
     <mergeCell ref="Y8:Z10"/>
     <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="K23:AA23"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="K26:AA26"/>
-    <mergeCell ref="K24:AA24"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AC8:AD10"/>
     <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="AB21:AD21"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K27:AA27"/>
+    <mergeCell ref="K21:AA21"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -2483,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
@@ -2497,354 +2547,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="31"/>
+    </row>
+    <row r="2" spans="1:34" ht="12.75" customHeight="1">
+      <c r="A2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="36"/>
-    </row>
-    <row r="2" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="97" t="s">
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="30"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="97"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="24" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="97" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="32" t="s">
-        <v>16</v>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="104">
+        <v>45061</v>
       </c>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="30"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="97"/>
     </row>
     <row r="4" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="24" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="97" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="32" t="s">
-        <v>15</v>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="95">
+        <v>0.01</v>
       </c>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="30"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="97"/>
     </row>
     <row r="5" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="97" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="30"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="96"/>
+      <c r="AH5" s="97"/>
     </row>
     <row r="6" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="97" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="30"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="104">
+        <v>45061</v>
+      </c>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="97"/>
     </row>
     <row r="7" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="28"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="58"/>
     </row>
     <row r="8" spans="1:34" ht="12.75" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="50"/>
+      <c r="A8" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="44"/>
     </row>
     <row r="9" spans="1:34" ht="12" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27"/>
-      <c r="AH9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="25"/>
     </row>
     <row r="10" spans="1:34" ht="12" customHeight="1">
       <c r="A10" s="5"/>
@@ -2935,8 +2993,8 @@
       <c r="O12" s="5"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="52"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="46"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="6"/>
@@ -2966,8 +3024,8 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="52"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="46"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="6"/>
@@ -2997,8 +3055,8 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="52"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="46"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="6"/>
@@ -3027,8 +3085,8 @@
       <c r="O15" s="5"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="52"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="46"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="6"/>
@@ -3056,7 +3114,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="5"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="53"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="6"/>
@@ -3072,7 +3130,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="6"/>
+      <c r="AH16" s="2"/>
     </row>
     <row r="17" spans="1:34" ht="12" customHeight="1">
       <c r="A17" s="5"/>
@@ -3129,7 +3187,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="52"/>
+      <c r="V18" s="46"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
@@ -3301,7 +3359,7 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="52"/>
+      <c r="V23" s="46"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
@@ -3402,8 +3460,8 @@
       <c r="O26" s="5"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="52"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="46"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="6"/>
@@ -3433,8 +3491,8 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="52"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="46"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="6"/>
@@ -3463,8 +3521,8 @@
       <c r="O28" s="5"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="52"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="6"/>
@@ -3493,8 +3551,8 @@
       <c r="O29" s="5"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="52"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="46"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="6"/>
@@ -3511,7 +3569,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="53"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="2"/>
@@ -3523,8 +3581,8 @@
       <c r="O30" s="5"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="52"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="46"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="6"/>
@@ -3553,8 +3611,8 @@
       <c r="O31" s="5"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="52"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="46"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="6"/>
@@ -3583,8 +3641,8 @@
       <c r="O32" s="5"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="52"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="46"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="6"/>
@@ -3613,8 +3671,8 @@
       <c r="O33" s="5"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="52"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="46"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="6"/>
@@ -4130,7 +4188,15 @@
       <c r="AH47" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="24">
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A7:AH7"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AE6:AH6"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AB3:AD3"/>
@@ -4142,6 +4208,11 @@
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="AB5:AD5"/>
     <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="H2:AA2"/>
+    <mergeCell ref="H3:AA3"/>
+    <mergeCell ref="H4:AA4"/>
+    <mergeCell ref="H5:AA5"/>
+    <mergeCell ref="H6:AA6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4153,33 +4224,30 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004898E95636345E4BA9B7207E304FF02A" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="565c9b6a8aa100445eb1ff549299857f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2741836-0272-4e3d-8a51-652512547cb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fea20e6e6d2355ca003064106e1f8fa" ns2:_="">
-    <xsd:import namespace="b2741836-0272-4e3d-8a51-652512547cb8"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d61432e928429b7674a5244cfb5c3aa3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c86a46b6a059d74eb0cf29d000f3e8af" ns2:_="">
+    <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4187,27 +4255,41 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b2741836-0272-4e3d-8a51-652512547cb8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c8a424a7-50d7-4cd5-819d-65031445e48f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7a3d4e50-da24-4b51-9333-67165e7dee8a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4310,14 +4392,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDA047BB-4324-451A-9BEE-A9BA74D1788B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C178673C-966F-4ADB-AB24-7C35FE961AE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC6D5DCD-0FF7-4AB1-8C24-F241837FD3E8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B25DD6-426F-43A4-BAF7-83671AC8D99E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C178673C-966F-4ADB-AB24-7C35FE961AE4}"/>
 </file>